--- a/pred_ohlcv/54_23/2019-10-12 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-12 PPT ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>640</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         <v>645</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         <v>641</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +553,10 @@
         <v>646</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -576,10 +576,10 @@
         <v>649</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -599,10 +599,10 @@
         <v>647</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>643</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -645,10 +645,10 @@
         <v>643</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -668,10 +668,10 @@
         <v>644</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -691,10 +691,10 @@
         <v>644</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -714,10 +714,10 @@
         <v>643</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -737,10 +737,10 @@
         <v>643</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -760,10 +760,10 @@
         <v>643</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -783,10 +783,10 @@
         <v>643</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -806,10 +806,10 @@
         <v>643</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -829,10 +829,10 @@
         <v>643</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -852,10 +852,10 @@
         <v>643</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -875,10 +875,10 @@
         <v>644</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -898,10 +898,10 @@
         <v>643</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -921,10 +921,10 @@
         <v>643</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -944,10 +944,10 @@
         <v>643</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -967,10 +967,10 @@
         <v>641</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -990,10 +990,10 @@
         <v>638</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1013,10 +1013,10 @@
         <v>638</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1036,10 +1036,10 @@
         <v>635</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1059,10 +1059,10 @@
         <v>635</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1082,10 +1082,10 @@
         <v>636</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1105,10 +1105,10 @@
         <v>631</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1128,10 +1128,10 @@
         <v>630</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1151,10 +1151,10 @@
         <v>632</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1174,10 +1174,10 @@
         <v>630</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1197,10 +1197,10 @@
         <v>633</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1220,10 +1220,10 @@
         <v>629</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1243,10 +1243,10 @@
         <v>631</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1266,10 +1266,10 @@
         <v>633</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1289,10 +1289,10 @@
         <v>633</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1312,10 +1312,10 @@
         <v>633</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1335,10 +1335,10 @@
         <v>633</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1358,10 +1358,10 @@
         <v>634</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1381,10 +1381,10 @@
         <v>633</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1404,10 +1404,10 @@
         <v>627</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -6763,7 +6763,7 @@
         <v>594</v>
       </c>
       <c r="F278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -7736,6 +7736,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>